--- a/xlsx/asset_allocation_chiara.xlsx
+++ b/xlsx/asset_allocation_chiara.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28507"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\Investments\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{545C94CF-4E41-4500-B218-3607BB0A7DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{545C94CF-4E41-4500-B218-3607BB0A7DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC20DFF9-2D64-4B41-9B04-31F2A694C04B}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QUOTE" sheetId="5" r:id="rId1"/>
@@ -65,8 +65,11 @@
     <definedName name="solver_val" localSheetId="0" hidden="1">0.08</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -107,10 +110,97 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="41">
   <si>
-    <t>Dates</t>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>Quote</t>
+  </si>
+  <si>
+    <t>VarCov*Quote</t>
+  </si>
+  <si>
+    <t>MRC*</t>
+  </si>
+  <si>
+    <t>TRC*</t>
+  </si>
+  <si>
+    <t>ERC*</t>
+  </si>
+  <si>
+    <t>Avg Ret</t>
+  </si>
+  <si>
+    <t>Weighted Ret</t>
+  </si>
+  <si>
+    <t>Squared Error</t>
+  </si>
+  <si>
+    <t>Tot</t>
+  </si>
+  <si>
+    <t>STD DEV</t>
+  </si>
+  <si>
+    <t>Monthly Ret</t>
+  </si>
+  <si>
+    <t>Annual Ret</t>
+  </si>
+  <si>
+    <t>DATI PTF</t>
+  </si>
+  <si>
+    <t>Var</t>
+  </si>
+  <si>
+    <t>Std Dev</t>
+  </si>
+  <si>
+    <t>Expected ret</t>
+  </si>
+  <si>
+    <t>Actual ret</t>
+  </si>
+  <si>
+    <t>SSE</t>
+  </si>
+  <si>
+    <t>*MRC/TRC/ERC = Marginal/Total/Expected Risk Contribution</t>
+  </si>
+  <si>
+    <t>MATRICE SCARTI QUADRATICI MEDI TRASPOSTA</t>
+  </si>
+  <si>
+    <t>MSCI World</t>
+  </si>
+  <si>
+    <t>US Quality</t>
+  </si>
+  <si>
+    <t>World Low Volatility</t>
+  </si>
+  <si>
+    <t>EU Gov bonds 7-10y</t>
+  </si>
+  <si>
+    <t>EU Corp Large Cap bonds</t>
+  </si>
+  <si>
+    <t>EU Inflation-Linked</t>
+  </si>
+  <si>
+    <t>EU Overnight</t>
+  </si>
+  <si>
+    <t>US Short Treasury</t>
   </si>
   <si>
     <t>ETC GOLD</t>
+  </si>
+  <si>
+    <t>Dates</t>
   </si>
   <si>
     <t>devst</t>
@@ -122,22 +212,13 @@
     <t>rend storico</t>
   </si>
   <si>
-    <t>MATRICE SCARTI QUADRATICI MEDI TRASPOSTA</t>
+    <t>World Momentum</t>
   </si>
   <si>
-    <t>Assets</t>
+    <t>World Healthcare</t>
   </si>
   <si>
-    <t>Quote</t>
-  </si>
-  <si>
-    <t>DATI PTF</t>
-  </si>
-  <si>
-    <t>Healthcare Global</t>
-  </si>
-  <si>
-    <t>Small Cap Global</t>
+    <t>US TIPS 0-5y</t>
   </si>
   <si>
     <t>Momentum Global</t>
@@ -146,88 +227,10 @@
     <t>Consumer Staples Global</t>
   </si>
   <si>
-    <t>EU Gov bonds 7-10y</t>
+    <t>Healthcare Global</t>
   </si>
   <si>
-    <t>US TIPS 0-5y</t>
-  </si>
-  <si>
-    <t>US Short Treasury</t>
-  </si>
-  <si>
-    <t>Actual ret</t>
-  </si>
-  <si>
-    <t>Expected ret</t>
-  </si>
-  <si>
-    <t>Monthly Ret</t>
-  </si>
-  <si>
-    <t>Annual Ret</t>
-  </si>
-  <si>
-    <t>STD DEV</t>
-  </si>
-  <si>
-    <t>Std Dev</t>
-  </si>
-  <si>
-    <t>Var</t>
-  </si>
-  <si>
-    <t>Tot</t>
-  </si>
-  <si>
-    <t>Weighted Ret</t>
-  </si>
-  <si>
-    <t>Avg Ret</t>
-  </si>
-  <si>
-    <t>VarCov*Quote</t>
-  </si>
-  <si>
-    <t>MRC*</t>
-  </si>
-  <si>
-    <t>TRC*</t>
-  </si>
-  <si>
-    <t>World Momentum</t>
-  </si>
-  <si>
-    <t>US Quality</t>
-  </si>
-  <si>
-    <t>World Low Volatility</t>
-  </si>
-  <si>
-    <t>World Healthcare</t>
-  </si>
-  <si>
-    <t>EU Corp Large Cap bonds</t>
-  </si>
-  <si>
-    <t>MSCI World</t>
-  </si>
-  <si>
-    <t>EU Inflation-Linked</t>
-  </si>
-  <si>
-    <t>EU Overnight</t>
-  </si>
-  <si>
-    <t>Squared Error</t>
-  </si>
-  <si>
-    <t>ERC*</t>
-  </si>
-  <si>
-    <t>*MRC/TRC/ERC = Marginal/Total/Expected Risk Contribution</t>
-  </si>
-  <si>
-    <t>SSE</t>
+    <t>Small Cap Global</t>
   </si>
 </sst>
 </file>
@@ -242,7 +245,7 @@
     <numFmt numFmtId="167" formatCode="0.0000000"/>
     <numFmt numFmtId="168" formatCode="_-* #,##0.000000000_-;\-* #,##0.000000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -969,7 +972,7 @@
                       <a:pPr>
                         <a:defRPr/>
                       </a:pPr>
-                      <a:t>[NOME CATEGORIA]</a:t>
+                      <a:t>[]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0">
@@ -989,7 +992,7 @@
                       <a:pPr>
                         <a:defRPr/>
                       </a:pPr>
-                      <a:t>[PERCENTUALE]</a:t>
+                      <a:t>[]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" baseline="0">
                       <a:solidFill>
@@ -1022,7 +1025,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="it-IT"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
@@ -1080,7 +1083,7 @@
                           </a:solidFill>
                         </a:defRPr>
                       </a:pPr>
-                      <a:t>[NOME CATEGORIA]</a:t>
+                      <a:t>[]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0">
@@ -1104,7 +1107,7 @@
                           </a:solidFill>
                         </a:defRPr>
                       </a:pPr>
-                      <a:t>[PERCENTUALE]</a:t>
+                      <a:t>[]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" baseline="0">
                       <a:solidFill>
@@ -1137,7 +1140,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="it-IT"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
@@ -1201,7 +1204,7 @@
                           </a:solidFill>
                         </a:defRPr>
                       </a:pPr>
-                      <a:t>[NOME CATEGORIA]</a:t>
+                      <a:t>[]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0">
@@ -1225,7 +1228,7 @@
                           </a:solidFill>
                         </a:defRPr>
                       </a:pPr>
-                      <a:t>[PERCENTUALE]</a:t>
+                      <a:t>[]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" baseline="0">
                       <a:solidFill>
@@ -1258,7 +1261,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="it-IT"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
@@ -1322,7 +1325,7 @@
                           </a:solidFill>
                         </a:defRPr>
                       </a:pPr>
-                      <a:t>[NOME CATEGORIA]</a:t>
+                      <a:t>[]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0">
@@ -1346,7 +1349,7 @@
                           </a:solidFill>
                         </a:defRPr>
                       </a:pPr>
-                      <a:t>[PERCENTUALE]</a:t>
+                      <a:t>[]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" baseline="0">
                       <a:solidFill>
@@ -1379,7 +1382,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="it-IT"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
@@ -1443,7 +1446,7 @@
                           </a:solidFill>
                         </a:defRPr>
                       </a:pPr>
-                      <a:t>[NOME CATEGORIA]</a:t>
+                      <a:t>[]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0">
@@ -1467,7 +1470,7 @@
                           </a:solidFill>
                         </a:defRPr>
                       </a:pPr>
-                      <a:t>[PERCENTUALE]</a:t>
+                      <a:t>[]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" baseline="0">
                       <a:solidFill>
@@ -1500,7 +1503,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="it-IT"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
@@ -1564,7 +1567,7 @@
                           </a:solidFill>
                         </a:defRPr>
                       </a:pPr>
-                      <a:t>[NOME CATEGORIA]</a:t>
+                      <a:t>[]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0">
@@ -1588,7 +1591,7 @@
                           </a:solidFill>
                         </a:defRPr>
                       </a:pPr>
-                      <a:t>[PERCENTUALE]</a:t>
+                      <a:t>[]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" baseline="0">
                       <a:solidFill>
@@ -1621,7 +1624,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="it-IT"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
@@ -1685,7 +1688,7 @@
                           </a:solidFill>
                         </a:defRPr>
                       </a:pPr>
-                      <a:t>[NOME CATEGORIA]</a:t>
+                      <a:t>[]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0">
@@ -1709,7 +1712,7 @@
                           </a:solidFill>
                         </a:defRPr>
                       </a:pPr>
-                      <a:t>[PERCENTUALE]</a:t>
+                      <a:t>[]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" baseline="0">
                       <a:solidFill>
@@ -1742,7 +1745,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="it-IT"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
@@ -1800,7 +1803,7 @@
                           </a:solidFill>
                         </a:defRPr>
                       </a:pPr>
-                      <a:t>[NOME CATEGORIA]</a:t>
+                      <a:t>[]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0">
@@ -1824,7 +1827,7 @@
                           </a:solidFill>
                         </a:defRPr>
                       </a:pPr>
-                      <a:t>[PERCENTUALE]</a:t>
+                      <a:t>[]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" baseline="0">
                       <a:solidFill>
@@ -1857,7 +1860,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="it-IT"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
@@ -1915,7 +1918,7 @@
                           </a:solidFill>
                         </a:defRPr>
                       </a:pPr>
-                      <a:t>[NOME CATEGORIA]</a:t>
+                      <a:t>[]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0">
@@ -1939,7 +1942,7 @@
                           </a:solidFill>
                         </a:defRPr>
                       </a:pPr>
-                      <a:t>[PERCENTUALE]</a:t>
+                      <a:t>[]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" baseline="0">
                       <a:solidFill>
@@ -1972,7 +1975,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="it-IT"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
@@ -3406,53 +3409,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D90A56B5-A7F3-4945-BF6E-77EA59518F99}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="26.3125" customWidth="1"/>
-    <col min="2" max="2" width="8.62890625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.62890625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.3125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.26171875" customWidth="1"/>
-    <col min="6" max="6" width="9.15625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.41796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.89453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.3125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:9" ht="14.65" thickBot="1">
       <c r="A1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="I1" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="42" t="str" cm="1">
         <f t="array" ref="A2:A10">TRANSPOSE(Prices!B1:J1)</f>
         <v>MSCI World</v>
@@ -3489,7 +3492,7 @@
         <v>1.0983910851836239E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9">
       <c r="A3" s="43" t="str">
         <v>US Quality</v>
       </c>
@@ -3523,7 +3526,7 @@
         <v>9.369736484257404E-6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9">
       <c r="A4" s="43" t="str">
         <v>World Low Volatility</v>
       </c>
@@ -3557,7 +3560,7 @@
         <v>4.9426953455028751E-8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9">
       <c r="A5" s="43" t="str">
         <v>EU Gov bonds 7-10y</v>
       </c>
@@ -3591,7 +3594,7 @@
         <v>1.1656565060176747E-6</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9">
       <c r="A6" s="43" t="str">
         <v>EU Corp Large Cap bonds</v>
       </c>
@@ -3625,7 +3628,7 @@
         <v>7.9734535906215007E-6</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9">
       <c r="A7" s="43" t="str">
         <v>EU Inflation-Linked</v>
       </c>
@@ -3659,7 +3662,7 @@
         <v>4.3681230129970329E-6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9">
       <c r="A8" s="43" t="str">
         <v>EU Overnight</v>
       </c>
@@ -3693,7 +3696,7 @@
         <v>7.8602454855011854E-6</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9">
       <c r="A9" s="43" t="str">
         <v>US Short Treasury</v>
       </c>
@@ -3727,7 +3730,7 @@
         <v>7.9579640988112592E-6</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:9" ht="14.65" thickBot="1">
       <c r="A10" s="43" t="str">
         <v>ETC GOLD</v>
       </c>
@@ -3761,9 +3764,9 @@
         <v>4.6042377176708605E-6</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:9" ht="14.65" thickBot="1">
       <c r="A11" s="44" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B11" s="14">
         <f>SUM(B2:B10)</f>
@@ -3771,7 +3774,7 @@
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="16" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E11" s="17">
         <f>SUM(E2:E10)</f>
@@ -3782,7 +3785,7 @@
         <v>2.5413573948587825E-2</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H11" s="20">
         <f>SUM(H2:H10)</f>
@@ -3793,7 +3796,7 @@
         <v>1.5318795236769436E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:9" ht="14.65" thickBot="1">
       <c r="A12" s="21"/>
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
@@ -3801,7 +3804,7 @@
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
       <c r="G12" s="47" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H12" s="48">
         <f>(H11+1)^12-1</f>
@@ -3809,15 +3812,15 @@
       </c>
       <c r="I12" s="49"/>
     </row>
-    <row r="14" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:9" ht="14.65" thickBot="1">
       <c r="A14" s="32" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B14" s="32"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9">
       <c r="A15" s="33" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B15" s="34" cm="1">
         <f t="array" ref="B15">MMULT(MMULT(TRANSPOSE(B2:B10),var_cov!B2:J10),B2:B10)</f>
@@ -3826,45 +3829,45 @@
       <c r="C15" s="45"/>
       <c r="G15" s="46"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9">
       <c r="A16" s="35" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B16" s="36">
         <f>SQRT(B15)</f>
         <v>2.5413573948587821E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2">
       <c r="A17" s="35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="37">
         <f>SUM(H2:H10)</f>
         <v>7.0626748923247233E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:2">
       <c r="A18" s="35" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="37">
         <f>(B17+1)^12-1</f>
         <v>8.8123020342292024E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:2" ht="14.65" thickBot="1">
       <c r="A19" s="38" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B19" s="39">
         <f>I11</f>
         <v>1.5318795236769436E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:2">
       <c r="A21" s="40" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -3881,57 +3884,57 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="20.3125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.26171875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.9453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.62890625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.3125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.68359375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.26171875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9">
       <c r="A1" s="31"/>
       <c r="B1" s="31" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="H1" s="31" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>0.68903314089430756</v>
@@ -3940,9 +3943,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>0.76744145704755784</v>
@@ -3954,9 +3957,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>0.78764737723611644</v>
@@ -3971,9 +3974,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <v>0.37213285808245522</v>
@@ -3991,9 +3994,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B7">
         <v>0.54824062353018699</v>
@@ -4014,9 +4017,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B8">
         <v>4.2284907361102617E-2</v>
@@ -4040,9 +4043,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:9" ht="14.65" thickBot="1">
       <c r="A9" s="30" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B9" s="30">
         <v>0.16884073092697496</v>
@@ -4094,9 +4097,9 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28.26171875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="28.28515625" defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10">
       <c r="B1" t="str" cm="1">
         <f t="array" ref="B1:J1">TRANSPOSE(_xlfn.ANCHORARRAY(A2))</f>
         <v>MSCI World</v>
@@ -4126,7 +4129,7 @@
         <v>ETC GOLD</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10">
       <c r="A2" t="str" cm="1">
         <f t="array" ref="A2:A10">TRANSPOSE(Returns!B1:J1)</f>
         <v>MSCI World</v>
@@ -4160,7 +4163,7 @@
         <v>-1.2069836702130975E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10">
       <c r="A3" t="str">
         <v>US Quality</v>
       </c>
@@ -4192,7 +4195,7 @@
         <v>5.2521116866826572E-6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10">
       <c r="A4" t="str">
         <v>World Low Volatility</v>
       </c>
@@ -4224,7 +4227,7 @@
         <v>1.0168041052006207E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10">
       <c r="A5" t="str">
         <v>EU Gov bonds 7-10y</v>
       </c>
@@ -4256,7 +4259,7 @@
         <v>8.3969831034663348E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10">
       <c r="A6" t="str">
         <v>EU Corp Large Cap bonds</v>
       </c>
@@ -4288,7 +4291,7 @@
         <v>7.2729420596477854E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10">
       <c r="A7" t="str">
         <v>EU Inflation-Linked</v>
       </c>
@@ -4320,7 +4323,7 @@
         <v>8.4399746060796911E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10">
       <c r="A8" t="str">
         <v>EU Overnight</v>
       </c>
@@ -4352,7 +4355,7 @@
         <v>1.2227031235362883E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10">
       <c r="A9" t="str">
         <v>US Short Treasury</v>
       </c>
@@ -4384,7 +4387,7 @@
         <v>1.5557098053592708E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10">
       <c r="A10" t="str">
         <v>ETC GOLD</v>
       </c>
@@ -4416,7 +4419,7 @@
         <v>1.4614844988757902E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10">
       <c r="A13" s="23"/>
     </row>
   </sheetData>
@@ -4444,9 +4447,9 @@
       <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11">
       <c r="A1" s="2">
         <f>Returns!B2-Returns!$B$74</f>
         <v>-3.4343362497664856E-2</v>
@@ -4486,7 +4489,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11">
       <c r="A2" s="2">
         <f>Returns!B3-Returns!$B$74</f>
         <v>3.3353487415541241E-2</v>
@@ -4524,7 +4527,7 @@
         <v>-1.3871564499409263E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11">
       <c r="A3" s="2">
         <f>Returns!B4-Returns!$B$74</f>
         <v>-2.4797457615391354E-2</v>
@@ -4562,7 +4565,7 @@
         <v>5.6951859979279103E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11">
       <c r="A4" s="2">
         <f>Returns!B5-Returns!$B$74</f>
         <v>1.0653398121499548E-2</v>
@@ -4600,7 +4603,7 @@
         <v>3.1831086057810598E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11">
       <c r="A5" s="2">
         <f>Returns!B6-Returns!$B$74</f>
         <v>7.4606185059307474E-3</v>
@@ -4638,7 +4641,7 @@
         <v>-2.3523897604820279E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11">
       <c r="A6" s="2">
         <f>Returns!B7-Returns!$B$74</f>
         <v>1.608794229542446E-3</v>
@@ -4676,7 +4679,7 @@
         <v>1.7904831841570296E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11">
       <c r="A7" s="2">
         <f>Returns!B8-Returns!$B$74</f>
         <v>2.6571360683150146E-2</v>
@@ -4714,7 +4717,7 @@
         <v>-7.7212877827220229E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11">
       <c r="A8" s="2">
         <f>Returns!B9-Returns!$B$74</f>
         <v>1.6517956131873845E-2</v>
@@ -4752,7 +4755,7 @@
         <v>-1.2396914245097999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11">
       <c r="A9" s="2">
         <f>Returns!B10-Returns!$B$74</f>
         <v>-4.1218483139456655E-2</v>
@@ -4790,7 +4793,7 @@
         <v>3.4856312508444898E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11">
       <c r="A10" s="2">
         <f>Returns!B11-Returns!$B$74</f>
         <v>2.5565854187793443E-2</v>
@@ -4828,7 +4831,7 @@
         <v>7.3920868304220094E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11">
       <c r="A11" s="2">
         <f>Returns!B12-Returns!$B$74</f>
         <v>2.2657878673008048E-2</v>
@@ -4866,7 +4869,7 @@
         <v>0.2089546683180569</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11">
       <c r="A12" s="2">
         <f>Returns!B13-Returns!$B$74</f>
         <v>3.2232278898853464E-3</v>
@@ -4904,7 +4907,7 @@
         <v>-1.1818429351763103E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:11">
       <c r="A13" s="2">
         <f>Returns!B14-Returns!$B$74</f>
         <v>4.5712023266172949E-2</v>
@@ -4942,7 +4945,7 @@
         <v>-1.1818429351763103E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:11">
       <c r="A14" s="2">
         <f>Returns!B15-Returns!$B$74</f>
         <v>8.1079350026135755E-2</v>
@@ -4980,7 +4983,7 @@
         <v>-1.1818429351763103E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:11">
       <c r="A15" s="2">
         <f>Returns!B16-Returns!$B$74</f>
         <v>-4.5978572888490957E-2</v>
@@ -5018,7 +5021,7 @@
         <v>-1.1818429351763103E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:11">
       <c r="A16" s="2">
         <f>Returns!B17-Returns!$B$74</f>
         <v>-5.1017663144765552E-2</v>
@@ -5056,7 +5059,7 @@
         <v>-1.1818429351763103E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:9">
       <c r="A17" s="2">
         <f>Returns!B18-Returns!$B$74</f>
         <v>-3.3125990302850059E-2</v>
@@ -5094,7 +5097,7 @@
         <v>-1.1818429351763103E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:9">
       <c r="A18" s="2">
         <f>Returns!B19-Returns!$B$74</f>
         <v>2.3083323622452547E-2</v>
@@ -5132,7 +5135,7 @@
         <v>-1.1818429351763103E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:9">
       <c r="A19" s="2">
         <f>Returns!B20-Returns!$B$74</f>
         <v>5.2477156688489845E-2</v>
@@ -5170,7 +5173,7 @@
         <v>-1.1818429351763103E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:9">
       <c r="A20" s="2">
         <f>Returns!B21-Returns!$B$74</f>
         <v>-2.1599281722950552E-2</v>
@@ -5208,7 +5211,7 @@
         <v>-1.1818429351763103E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:9">
       <c r="A21" s="2">
         <f>Returns!B22-Returns!$B$74</f>
         <v>8.2090450055956471E-3</v>
@@ -5246,7 +5249,7 @@
         <v>-1.1818429351763103E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:9">
       <c r="A22" s="2">
         <f>Returns!B23-Returns!$B$74</f>
         <v>1.4957266064020248E-2</v>
@@ -5284,7 +5287,7 @@
         <v>-1.1818429351763103E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:9">
       <c r="A23" s="2">
         <f>Returns!B24-Returns!$B$74</f>
         <v>-2.7793930395514355E-2</v>
@@ -5322,7 +5325,7 @@
         <v>-1.1818429351763103E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:9">
       <c r="A24" s="2">
         <f>Returns!B25-Returns!$B$74</f>
         <v>5.4842129266676948E-2</v>
@@ -5360,7 +5363,7 @@
         <v>-1.1818429351763103E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:9">
       <c r="A25" s="2">
         <f>Returns!B26-Returns!$B$74</f>
         <v>-3.4092550066765953E-2</v>
@@ -5398,7 +5401,7 @@
         <v>-1.1818429351763103E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:9">
       <c r="A26" s="2">
         <f>Returns!B27-Returns!$B$74</f>
         <v>3.6931821454584443E-2</v>
@@ -5436,7 +5439,7 @@
         <v>-1.1818429351763103E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:9">
       <c r="A27" s="2">
         <f>Returns!B28-Returns!$B$74</f>
         <v>4.3030849998230147E-2</v>
@@ -5474,7 +5477,7 @@
         <v>-1.1818429351763103E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:9">
       <c r="A28" s="2">
         <f>Returns!B29-Returns!$B$74</f>
         <v>-9.0458604110499954E-2</v>
@@ -5512,7 +5515,7 @@
         <v>-1.1818429351763103E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:9">
       <c r="A29" s="2">
         <f>Returns!B30-Returns!$B$74</f>
         <v>-4.3649866121003647E-2</v>
@@ -5550,7 +5553,7 @@
         <v>-1.1818429351763103E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:9">
       <c r="A30" s="2">
         <f>Returns!B31-Returns!$B$74</f>
         <v>6.3484768949679554E-2</v>
@@ -5588,7 +5591,7 @@
         <v>-1.1818429351763103E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:9">
       <c r="A31" s="2">
         <f>Returns!B32-Returns!$B$74</f>
         <v>-9.7322332695367247E-2</v>
@@ -5626,7 +5629,7 @@
         <v>-1.1818429351763103E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:9">
       <c r="A32" s="2">
         <f>Returns!B33-Returns!$B$74</f>
         <v>-2.8681131480095552E-2</v>
@@ -5664,7 +5667,7 @@
         <v>-1.1818429351763103E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:9">
       <c r="A33" s="2">
         <f>Returns!B34-Returns!$B$74</f>
         <v>-8.5874915031582955E-2</v>
@@ -5702,7 +5705,7 @@
         <v>-1.1818429351763103E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:9">
       <c r="A34" s="2">
         <f>Returns!B35-Returns!$B$74</f>
         <v>2.4459702735914145E-2</v>
@@ -5740,7 +5743,7 @@
         <v>-1.1818429351763103E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:9">
       <c r="A35" s="2">
         <f>Returns!B36-Returns!$B$74</f>
         <v>-2.6573891013845052E-2</v>
@@ -5778,7 +5781,7 @@
         <v>-1.1818429351763103E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:9">
       <c r="A36" s="2">
         <f>Returns!B37-Returns!$B$74</f>
         <v>-7.5744950129168348E-2</v>
@@ -5816,7 +5819,7 @@
         <v>-1.1818429351763103E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:9">
       <c r="A37" s="2">
         <f>Returns!B38-Returns!$B$74</f>
         <v>3.5248484682569844E-2</v>
@@ -5854,7 +5857,7 @@
         <v>-1.1818429351763103E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:9">
       <c r="A38" s="2">
         <f>Returns!B39-Returns!$B$74</f>
         <v>-2.9364819656675555E-2</v>
@@ -5892,7 +5895,7 @@
         <v>-1.1818429351763103E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:9">
       <c r="A39" s="2">
         <f>Returns!B40-Returns!$B$74</f>
         <v>3.9037486904911545E-2</v>
@@ -5930,7 +5933,7 @@
         <v>-1.1818429351763103E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:9">
       <c r="A40" s="2">
         <f>Returns!B41-Returns!$B$74</f>
         <v>-4.8149586118205856E-2</v>
@@ -5968,7 +5971,7 @@
         <v>-1.1818429351763103E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:9">
       <c r="A41" s="2">
         <f>Returns!B42-Returns!$B$74</f>
         <v>1.4715319542627246E-2</v>
@@ -6006,7 +6009,7 @@
         <v>-1.1818429351763103E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:9">
       <c r="A42" s="2">
         <f>Returns!B43-Returns!$B$74</f>
         <v>8.8152682968689472E-3</v>
@@ -6044,7 +6047,7 @@
         <v>2.5362484037463995E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:9">
       <c r="A43" s="2">
         <f>Returns!B44-Returns!$B$74</f>
         <v>-3.62442240885337E-6</v>
@@ -6082,7 +6085,7 @@
         <v>-5.3244027814581305E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:9">
       <c r="A44" s="2">
         <f>Returns!B45-Returns!$B$74</f>
         <v>6.3852673202860477E-3</v>
@@ -6120,7 +6123,7 @@
         <v>4.5850863899858096E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:9">
       <c r="A45" s="2">
         <f>Returns!B46-Returns!$B$74</f>
         <v>3.4802504861615846E-2</v>
@@ -6158,7 +6161,7 @@
         <v>-5.0977879082370232E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:9">
       <c r="A46" s="2">
         <f>Returns!B47-Returns!$B$74</f>
         <v>1.9193953078841447E-2</v>
@@ -6196,7 +6199,7 @@
         <v>7.7610654019350973E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:9">
       <c r="A47" s="2">
         <f>Returns!B48-Returns!$B$74</f>
         <v>1.7285304066500248E-2</v>
@@ -6234,7 +6237,7 @@
         <v>-8.1570258908707616E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:9">
       <c r="A48" s="2">
         <f>Returns!B49-Returns!$B$74</f>
         <v>-1.7969106279171025E-2</v>
@@ -6272,7 +6275,7 @@
         <v>-1.5246963851500452E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:9">
       <c r="A49" s="2">
         <f>Returns!B50-Returns!$B$74</f>
         <v>3.6987331760961251E-2</v>
@@ -6310,7 +6313,7 @@
         <v>1.8662995729224197E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:9">
       <c r="A50" s="2">
         <f>Returns!B51-Returns!$B$74</f>
         <v>0.11343622487171134</v>
@@ -6348,7 +6351,7 @@
         <v>-8.8746415051161598E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:9">
       <c r="A51" s="2">
         <f>Returns!B52-Returns!$B$74</f>
         <v>-4.5175174918516747E-2</v>
@@ -6386,7 +6389,7 @@
         <v>-9.5752318496551032E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:9">
       <c r="A52" s="2">
         <f>Returns!B53-Returns!$B$74</f>
         <v>-4.0537312683921259E-2</v>
@@ -6424,7 +6427,7 @@
         <v>-3.3512620803875702E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:9">
       <c r="A53" s="2">
         <f>Returns!B54-Returns!$B$74</f>
         <v>5.9307750446362148E-2</v>
@@ -6462,7 +6465,7 @@
         <v>-2.7251480251347805E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:9">
       <c r="A54" s="2">
         <f>Returns!B55-Returns!$B$74</f>
         <v>3.6830310151734449E-2</v>
@@ -6500,7 +6503,7 @@
         <v>4.14325607581012E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:9">
       <c r="A55" s="2">
         <f>Returns!B56-Returns!$B$74</f>
         <v>1.8247454939706746E-2</v>
@@ -6538,7 +6541,7 @@
         <v>5.5792349643615964E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:9">
       <c r="A56" s="2">
         <f>Returns!B57-Returns!$B$74</f>
         <v>3.1408557506076351E-2</v>
@@ -6576,7 +6579,7 @@
         <v>-9.6971694745171221E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:9">
       <c r="A57" s="2">
         <f>Returns!B58-Returns!$B$74</f>
         <v>8.1102197933342446E-2</v>
@@ -6614,7 +6617,7 @@
         <v>4.9086019016032496E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:9">
       <c r="A58" s="2">
         <f>Returns!B59-Returns!$B$74</f>
         <v>-0.12109018965372065</v>
@@ -6652,7 +6655,7 @@
         <v>2.8821878380849968E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:9">
       <c r="A59" s="2">
         <f>Returns!B60-Returns!$B$74</f>
         <v>-0.10611488041495455</v>
@@ -6690,7 +6693,7 @@
         <v>-3.1808977150078136E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:9">
       <c r="A60" s="2">
         <f>Returns!B61-Returns!$B$74</f>
         <v>-1.2960986181091864E-2</v>
@@ -6728,7 +6731,7 @@
         <v>4.7745312635975999E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:9">
       <c r="A61" s="2">
         <f>Returns!B62-Returns!$B$74</f>
         <v>1.5296867767166548E-2</v>
@@ -6766,7 +6769,7 @@
         <v>4.8520667026265979E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:9">
       <c r="A62" s="2">
         <f>Returns!B63-Returns!$B$74</f>
         <v>2.1859069161005048E-2</v>
@@ -6804,7 +6807,7 @@
         <v>-3.1877690634380201E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:9">
       <c r="A63" s="2">
         <f>Returns!B64-Returns!$B$74</f>
         <v>1.0890336590431347E-2</v>
@@ -6842,7 +6845,7 @@
         <v>-5.0869605873444428E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:9">
       <c r="A64" s="2">
         <f>Returns!B65-Returns!$B$74</f>
         <v>1.2805416607315948E-2</v>
@@ -6880,7 +6883,7 @@
         <v>-4.3950000843145605E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:70" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:70">
       <c r="A65" s="2">
         <f>Returns!B66-Returns!$B$74</f>
         <v>-3.9414376141680155E-2</v>
@@ -6918,7 +6921,7 @@
         <v>7.2123522840140286E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:70" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:70">
       <c r="A66" s="2">
         <f>Returns!B67-Returns!$B$74</f>
         <v>2.5766633883872458E-3</v>
@@ -6956,7 +6959,7 @@
         <v>2.2289459530822495E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:70" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:70">
       <c r="A67" s="2">
         <f>Returns!B68-Returns!$B$74</f>
         <v>5.0176889710863246E-2</v>
@@ -6994,7 +6997,7 @@
         <v>5.0979267941066796E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:70" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:70">
       <c r="A68" s="2">
         <f>Returns!B69-Returns!$B$74</f>
         <v>-6.3573362909656456E-2</v>
@@ -7032,7 +7035,7 @@
         <v>6.1381162517484961E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:70" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:70">
       <c r="A69" s="2">
         <f>Returns!B70-Returns!$B$74</f>
         <v>2.4337729229953645E-2</v>
@@ -7070,9 +7073,9 @@
         <v>-1.9303761361634662E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:70" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:70">
       <c r="A71" s="4" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -7144,7 +7147,7 @@
       <c r="BQ71" s="2"/>
       <c r="BR71" s="2"/>
     </row>
-    <row r="72" spans="1:70" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:70">
       <c r="A72" s="2" cm="1">
         <f t="array" ref="A72:BQ80">TRANSPOSE(A1:I69)</f>
         <v>-3.4343362497664856E-2</v>
@@ -7355,7 +7358,7 @@
       </c>
       <c r="BR72" s="2"/>
     </row>
-    <row r="73" spans="1:70" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:70">
       <c r="A73" s="2">
         <v>-2.9016027390318604E-2</v>
       </c>
@@ -7565,7 +7568,7 @@
       </c>
       <c r="BR73" s="2"/>
     </row>
-    <row r="74" spans="1:70" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:70">
       <c r="A74" s="2">
         <v>-5.5907237031774144E-2</v>
       </c>
@@ -7775,7 +7778,7 @@
       </c>
       <c r="BR74" s="2"/>
     </row>
-    <row r="75" spans="1:70" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:70">
       <c r="A75" s="2">
         <v>-1.3278819287112376E-2</v>
       </c>
@@ -7985,7 +7988,7 @@
       </c>
       <c r="BR75" s="2"/>
     </row>
-    <row r="76" spans="1:70" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:70">
       <c r="A76" s="2">
         <v>-1.409257738708882E-2</v>
       </c>
@@ -8195,7 +8198,7 @@
       </c>
       <c r="BR76" s="2"/>
     </row>
-    <row r="77" spans="1:70" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:70">
       <c r="A77" s="2">
         <v>-1.3603186104185322E-2</v>
       </c>
@@ -8405,7 +8408,7 @@
       </c>
       <c r="BR77" s="2"/>
     </row>
-    <row r="78" spans="1:70" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:70">
       <c r="A78" s="2">
         <v>1.3703205000999037E-3</v>
       </c>
@@ -8615,7 +8618,7 @@
       </c>
       <c r="BR78" s="2"/>
     </row>
-    <row r="79" spans="1:70" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:70">
       <c r="A79" s="2">
         <v>1.0504084438402186E-3</v>
       </c>
@@ -8825,7 +8828,7 @@
       </c>
       <c r="BR79" s="2"/>
     </row>
-    <row r="80" spans="1:70" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:70">
       <c r="A80" s="2">
         <v>-2.0582799567420453E-2</v>
       </c>
@@ -9048,60 +9051,60 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="20.578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.26171875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.3671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.3125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.3671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.89453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.26171875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10">
       <c r="A1" s="31"/>
       <c r="B1" s="31" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H1" s="31" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="J1" s="31" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>0.84125984758169026</v>
@@ -9110,9 +9113,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>0.87849002720597125</v>
@@ -9124,9 +9127,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>0.44748615714127082</v>
@@ -9141,9 +9144,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B6">
         <v>0.6781739291817378</v>
@@ -9161,9 +9164,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B7">
         <v>0.60805230617460648</v>
@@ -9184,9 +9187,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B8">
         <v>7.3824811066661555E-2</v>
@@ -9210,9 +9213,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B9">
         <v>-2.3308119922101314E-2</v>
@@ -9239,9 +9242,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:10" ht="14.65" thickBot="1">
       <c r="A10" s="30" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B10" s="30">
         <v>-6.8306044433580669E-3</v>
@@ -9292,56 +9295,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="I75" sqref="I75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="10.15625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.26171875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.68359375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.62890625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.62890625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.26171875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.83984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.26171875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="I1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="J1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="26">
         <v>45645</v>
       </c>
@@ -9373,7 +9376,7 @@
         <v>-8.7643702156573501E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10">
       <c r="A3" s="26">
         <v>45625</v>
       </c>
@@ -9405,7 +9408,7 @@
         <v>-2.0531351476461598E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10">
       <c r="A4" s="26">
         <v>45596</v>
       </c>
@@ -9437,7 +9440,7 @@
         <v>6.8770289331042206E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10">
       <c r="A5" s="26">
         <v>45565</v>
       </c>
@@ -9469,7 +9472,7 @@
         <v>4.3649515409573701E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10">
       <c r="A6" s="26">
         <v>45534</v>
       </c>
@@ -9501,7 +9504,7 @@
         <v>1.15831903757149E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10">
       <c r="A7" s="26">
         <v>45504</v>
       </c>
@@ -9533,7 +9536,7 @@
         <v>2.9723261193333399E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10">
       <c r="A8" s="26">
         <v>45471</v>
       </c>
@@ -9565,7 +9568,7 @@
         <v>1.1046300573490901E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10">
       <c r="A9" s="26">
         <v>45443</v>
       </c>
@@ -9597,7 +9600,7 @@
         <v>-5.7848489333489595E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10">
       <c r="A10" s="26">
         <v>45412</v>
       </c>
@@ -9629,7 +9632,7 @@
         <v>4.6674741860208001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10">
       <c r="A11" s="26">
         <v>45379</v>
       </c>
@@ -9661,7 +9664,7 @@
         <v>8.5739297655983204E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10">
       <c r="A12" s="26">
         <v>45351</v>
       </c>
@@ -9693,7 +9696,7 @@
         <v>0.22077309766982001</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10">
       <c r="A13" s="26">
         <v>45322</v>
       </c>
@@ -9725,7 +9728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10">
       <c r="A14" s="26">
         <v>45289</v>
       </c>
@@ -9757,7 +9760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10">
       <c r="A15" s="26">
         <v>45260</v>
       </c>
@@ -9789,7 +9792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10">
       <c r="A16" s="26">
         <v>45230</v>
       </c>
@@ -9821,7 +9824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:10">
       <c r="A17" s="26">
         <v>45198</v>
       </c>
@@ -9853,7 +9856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:10">
       <c r="A18" s="26">
         <v>45169</v>
       </c>
@@ -9885,7 +9888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:10">
       <c r="A19" s="26">
         <v>45138</v>
       </c>
@@ -9917,7 +9920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:10">
       <c r="A20" s="26">
         <v>45107</v>
       </c>
@@ -9949,7 +9952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:10">
       <c r="A21" s="26">
         <v>45077</v>
       </c>
@@ -9981,7 +9984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:10">
       <c r="A22" s="26">
         <v>45044</v>
       </c>
@@ -10013,7 +10016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:10">
       <c r="A23" s="26">
         <v>45016</v>
       </c>
@@ -10045,7 +10048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:10">
       <c r="A24" s="26">
         <v>44985</v>
       </c>
@@ -10077,7 +10080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:10">
       <c r="A25" s="26">
         <v>44957</v>
       </c>
@@ -10109,7 +10112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:10">
       <c r="A26" s="26">
         <v>44925</v>
       </c>
@@ -10141,7 +10144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:10">
       <c r="A27" s="26">
         <v>44895</v>
       </c>
@@ -10173,7 +10176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:10">
       <c r="A28" s="26">
         <v>44865</v>
       </c>
@@ -10205,7 +10208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:10">
       <c r="A29" s="26">
         <v>44834</v>
       </c>
@@ -10237,7 +10240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:10">
       <c r="A30" s="26">
         <v>44804</v>
       </c>
@@ -10269,7 +10272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:10">
       <c r="A31" s="26">
         <v>44771</v>
       </c>
@@ -10301,7 +10304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:10">
       <c r="A32" s="26">
         <v>44742</v>
       </c>
@@ -10333,7 +10336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:10">
       <c r="A33" s="26">
         <v>44712</v>
       </c>
@@ -10365,7 +10368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:10">
       <c r="A34" s="26">
         <v>44680</v>
       </c>
@@ -10397,7 +10400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:10">
       <c r="A35" s="26">
         <v>44651</v>
       </c>
@@ -10429,7 +10432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:10">
       <c r="A36" s="26">
         <v>44620</v>
       </c>
@@ -10461,7 +10464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:10">
       <c r="A37" s="26">
         <v>44592</v>
       </c>
@@ -10493,7 +10496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:10">
       <c r="A38" s="26">
         <v>44560</v>
       </c>
@@ -10525,7 +10528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:10">
       <c r="A39" s="26">
         <v>44530</v>
       </c>
@@ -10557,7 +10560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:10">
       <c r="A40" s="26">
         <v>44498</v>
       </c>
@@ -10589,7 +10592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:10">
       <c r="A41" s="26">
         <v>44469</v>
       </c>
@@ -10621,7 +10624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:10">
       <c r="A42" s="26">
         <v>44439</v>
       </c>
@@ -10653,7 +10656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:10">
       <c r="A43" s="26">
         <v>44407</v>
       </c>
@@ -10685,7 +10688,7 @@
         <v>3.7180913389227098E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:10">
       <c r="A44" s="26">
         <v>44377</v>
       </c>
@@ -10717,7 +10720,7 @@
         <v>-4.1425598462818201E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:10">
       <c r="A45" s="26">
         <v>44344</v>
       </c>
@@ -10749,7 +10752,7 @@
         <v>5.76692932516212E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:10">
       <c r="A46" s="26">
         <v>44316</v>
       </c>
@@ -10781,7 +10784,7 @@
         <v>1.1308650560939401E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:10">
       <c r="A47" s="26">
         <v>44286</v>
       </c>
@@ -10813,7 +10816,7 @@
         <v>1.95794947536982E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:10">
       <c r="A48" s="26">
         <v>44253</v>
       </c>
@@ -10845,7 +10848,7 @@
         <v>-6.9751829556944506E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:10">
       <c r="A49" s="26">
         <v>44225</v>
       </c>
@@ -10877,7 +10880,7 @@
         <v>-3.42853449973735E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:10">
       <c r="A50" s="26">
         <v>44195</v>
       </c>
@@ -10909,7 +10912,7 @@
         <v>3.04814250809873E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:10">
       <c r="A51" s="26">
         <v>44165</v>
       </c>
@@ -10941,7 +10944,7 @@
         <v>-7.6927985699398502E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:10">
       <c r="A52" s="26">
         <v>44134</v>
       </c>
@@ -10973,7 +10976,7 @@
         <v>2.2431975021079999E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:10">
       <c r="A53" s="26">
         <v>44104</v>
       </c>
@@ -11005,7 +11008,7 @@
         <v>-2.1694191452112599E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:10">
       <c r="A54" s="26">
         <v>44071</v>
       </c>
@@ -11037,7 +11040,7 @@
         <v>-1.54330508995847E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:10">
       <c r="A55" s="26">
         <v>44043</v>
       </c>
@@ -11069,7 +11072,7 @@
         <v>5.3250990109864303E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:10">
       <c r="A56" s="26">
         <v>44012</v>
       </c>
@@ -11101,7 +11104,7 @@
         <v>1.73976643161247E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:10">
       <c r="A57" s="26">
         <v>43980</v>
       </c>
@@ -11133,7 +11136,7 @@
         <v>2.1212598772459802E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:10">
       <c r="A58" s="26">
         <v>43951</v>
       </c>
@@ -11165,7 +11168,7 @@
         <v>6.0904448367795599E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:10">
       <c r="A59" s="26">
         <v>43921</v>
       </c>
@@ -11197,7 +11200,7 @@
         <v>1.47006171898481E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:10">
       <c r="A60" s="26">
         <v>43889</v>
       </c>
@@ -11229,7 +11232,7 @@
         <v>8.6375316367552895E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:10">
       <c r="A61" s="26">
         <v>43861</v>
       </c>
@@ -11261,7 +11264,7 @@
         <v>5.9563741987739102E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:10">
       <c r="A62" s="26">
         <v>43829</v>
       </c>
@@ -11293,7 +11296,7 @@
         <v>1.6670496054389701E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:10">
       <c r="A63" s="26">
         <v>43798</v>
       </c>
@@ -11325,7 +11328,7 @@
         <v>-2.0059261282617102E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:10">
       <c r="A64" s="26">
         <v>43769</v>
       </c>
@@ -11357,7 +11360,7 @@
         <v>6.7314687644186603E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:10">
       <c r="A65" s="26">
         <v>43738</v>
       </c>
@@ -11389,7 +11392,7 @@
         <v>-3.2131571491382502E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:10">
       <c r="A66" s="26">
         <v>43707</v>
       </c>
@@ -11421,7 +11424,7 @@
         <v>8.3941952191903396E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:10">
       <c r="A67" s="26">
         <v>43677</v>
       </c>
@@ -11453,7 +11456,7 @@
         <v>3.4107888882585598E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:10">
       <c r="A68" s="26">
         <v>43644</v>
       </c>
@@ -11485,7 +11488,7 @@
         <v>6.2797697292829899E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:10">
       <c r="A69" s="26">
         <v>43616</v>
       </c>
@@ -11517,7 +11520,7 @@
         <v>1.7956545603511599E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:10">
       <c r="A70" s="26">
         <v>43585</v>
       </c>
@@ -11549,12 +11552,12 @@
         <v>-7.4853320098715601E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:10">
       <c r="A71" s="26"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="B73" s="2">
         <f>STDEV(B2:B70)</f>
@@ -11593,9 +11596,9 @@
         <v>3.8509439336049896E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B74" s="2">
         <f>AVERAGE(B2:B70)</f>
@@ -11634,9 +11637,9 @@
         <v>1.1818429351763103E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B75" s="3">
         <f>(Prices!B2-Prices!B71)/Prices!B71</f>
@@ -11689,52 +11692,52 @@
       <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.20703125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="10.15625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.68359375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.68359375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.62890625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.62890625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.68359375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.83984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="I1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="J1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="26">
         <v>45645</v>
       </c>
@@ -11766,7 +11769,7 @@
         <v>240.89999389648401</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10">
       <c r="A3" s="26">
         <v>45625</v>
       </c>
@@ -11798,7 +11801,7 @@
         <v>243.02999877929699</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10">
       <c r="A4" s="26">
         <v>45596</v>
       </c>
@@ -11830,7 +11833,7 @@
         <v>243.52999877929699</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10">
       <c r="A5" s="26">
         <v>45565</v>
       </c>
@@ -11862,7 +11865,7 @@
         <v>227.86000061035199</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10">
       <c r="A6" s="26">
         <v>45534</v>
       </c>
@@ -11894,7 +11897,7 @@
         <v>218.330001831055</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10">
       <c r="A7" s="26">
         <v>45504</v>
       </c>
@@ -11926,7 +11929,7 @@
         <v>215.830001831055</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10">
       <c r="A8" s="26">
         <v>45471</v>
       </c>
@@ -11958,7 +11961,7 @@
         <v>209.60000610351599</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10">
       <c r="A9" s="26">
         <v>45443</v>
       </c>
@@ -11990,7 +11993,7 @@
         <v>207.30999755859401</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10">
       <c r="A10" s="26">
         <v>45412</v>
       </c>
@@ -12022,7 +12025,7 @@
         <v>207.42999267578099</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10">
       <c r="A11" s="26">
         <v>45379</v>
       </c>
@@ -12054,7 +12057,7 @@
         <v>198.17999267578099</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10">
       <c r="A12" s="26">
         <v>45351</v>
       </c>
@@ -12086,7 +12089,7 @@
         <v>182.52999877929699</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10">
       <c r="A13" s="26">
         <v>45322</v>
       </c>
@@ -12118,7 +12121,7 @@
         <v>149.52000427246099</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10">
       <c r="A14" s="26">
         <v>45289</v>
       </c>
@@ -12150,7 +12153,7 @@
         <v>149.52000427246099</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10">
       <c r="A15" s="26">
         <v>45260</v>
       </c>
@@ -12182,7 +12185,7 @@
         <v>149.52000427246099</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10">
       <c r="A16" s="26">
         <v>45230</v>
       </c>
@@ -12214,7 +12217,7 @@
         <v>149.52000427246099</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:10">
       <c r="A17" s="26">
         <v>45198</v>
       </c>
@@ -12246,7 +12249,7 @@
         <v>149.52000427246099</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:10">
       <c r="A18" s="26">
         <v>45169</v>
       </c>
@@ -12278,7 +12281,7 @@
         <v>149.52000427246099</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:10">
       <c r="A19" s="26">
         <v>45138</v>
       </c>
@@ -12310,7 +12313,7 @@
         <v>149.52000427246099</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:10">
       <c r="A20" s="26">
         <v>45107</v>
       </c>
@@ -12342,7 +12345,7 @@
         <v>149.52000427246099</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:10">
       <c r="A21" s="26">
         <v>45077</v>
       </c>
@@ -12374,7 +12377,7 @@
         <v>149.52000427246099</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:10">
       <c r="A22" s="26">
         <v>45044</v>
       </c>
@@ -12406,7 +12409,7 @@
         <v>149.52000427246099</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:10">
       <c r="A23" s="26">
         <v>45016</v>
       </c>
@@ -12438,7 +12441,7 @@
         <v>149.52000427246099</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:10">
       <c r="A24" s="26">
         <v>44985</v>
       </c>
@@ -12470,7 +12473,7 @@
         <v>149.52000427246099</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:10">
       <c r="A25" s="26">
         <v>44957</v>
       </c>
@@ -12502,7 +12505,7 @@
         <v>149.52000427246099</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:10">
       <c r="A26" s="26">
         <v>44925</v>
       </c>
@@ -12534,7 +12537,7 @@
         <v>149.52000427246099</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:10">
       <c r="A27" s="26">
         <v>44895</v>
       </c>
@@ -12566,7 +12569,7 @@
         <v>149.52000427246099</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:10">
       <c r="A28" s="26">
         <v>44865</v>
       </c>
@@ -12598,7 +12601,7 @@
         <v>149.52000427246099</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:10">
       <c r="A29" s="26">
         <v>44834</v>
       </c>
@@ -12630,7 +12633,7 @@
         <v>149.52000427246099</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:10">
       <c r="A30" s="26">
         <v>44804</v>
       </c>
@@ -12662,7 +12665,7 @@
         <v>149.52000427246099</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:10">
       <c r="A31" s="26">
         <v>44771</v>
       </c>
@@ -12694,7 +12697,7 @@
         <v>149.52000427246099</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:10">
       <c r="A32" s="26">
         <v>44742</v>
       </c>
@@ -12726,7 +12729,7 @@
         <v>149.52000427246099</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:10">
       <c r="A33" s="26">
         <v>44712</v>
       </c>
@@ -12758,7 +12761,7 @@
         <v>149.52000427246099</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:10">
       <c r="A34" s="26">
         <v>44680</v>
       </c>
@@ -12790,7 +12793,7 @@
         <v>149.52000427246099</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:10">
       <c r="A35" s="26">
         <v>44651</v>
       </c>
@@ -12822,7 +12825,7 @@
         <v>149.52000427246099</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:10">
       <c r="A36" s="26">
         <v>44620</v>
       </c>
@@ -12854,7 +12857,7 @@
         <v>149.52000427246099</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:10">
       <c r="A37" s="26">
         <v>44592</v>
       </c>
@@ -12886,7 +12889,7 @@
         <v>149.52000427246099</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:10">
       <c r="A38" s="26">
         <v>44560</v>
       </c>
@@ -12918,7 +12921,7 @@
         <v>149.52000427246099</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:10">
       <c r="A39" s="26">
         <v>44530</v>
       </c>
@@ -12950,7 +12953,7 @@
         <v>149.52000427246099</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:10">
       <c r="A40" s="26">
         <v>44498</v>
       </c>
@@ -12982,7 +12985,7 @@
         <v>149.52000427246099</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:10">
       <c r="A41" s="26">
         <v>44469</v>
       </c>
@@ -13014,7 +13017,7 @@
         <v>149.52000427246099</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:10">
       <c r="A42" s="26">
         <v>44439</v>
       </c>
@@ -13046,7 +13049,7 @@
         <v>149.52000427246099</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:10">
       <c r="A43" s="26">
         <v>44407</v>
       </c>
@@ -13078,7 +13081,7 @@
         <v>149.52000427246099</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:10">
       <c r="A44" s="26">
         <v>44377</v>
       </c>
@@ -13110,7 +13113,7 @@
         <v>144.16000366210901</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:10">
       <c r="A45" s="26">
         <v>44344</v>
       </c>
@@ -13142,7 +13145,7 @@
         <v>150.38999938964801</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:10">
       <c r="A46" s="26">
         <v>44316</v>
       </c>
@@ -13174,7 +13177,7 @@
         <v>142.19000244140599</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:10">
       <c r="A47" s="26">
         <v>44286</v>
       </c>
@@ -13206,7 +13209,7 @@
         <v>140.60000610351599</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:10">
       <c r="A48" s="26">
         <v>44253</v>
       </c>
@@ -13238,7 +13241,7 @@
         <v>137.89999389648401</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:10">
       <c r="A49" s="26">
         <v>44225</v>
       </c>
@@ -13270,7 +13273,7 @@
         <v>148.24000549316401</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:10">
       <c r="A50" s="26">
         <v>44195</v>
       </c>
@@ -13302,7 +13305,7 @@
         <v>148.75</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:10">
       <c r="A51" s="26">
         <v>44165</v>
       </c>
@@ -13334,7 +13337,7 @@
         <v>144.35000610351599</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:10">
       <c r="A52" s="26">
         <v>44134</v>
       </c>
@@ -13366,7 +13369,7 @@
         <v>156.38000488281199</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:10">
       <c r="A53" s="26">
         <v>44104</v>
       </c>
@@ -13398,7 +13401,7 @@
         <v>156.02999877929699</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:10">
       <c r="A54" s="26">
         <v>44071</v>
       </c>
@@ -13430,7 +13433,7 @@
         <v>159.49000549316401</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:10">
       <c r="A55" s="26">
         <v>44043</v>
       </c>
@@ -13462,7 +13465,7 @@
         <v>161.99000549316401</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:10">
       <c r="A56" s="26">
         <v>44012</v>
       </c>
@@ -13494,7 +13497,7 @@
         <v>153.80000305175801</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:10">
       <c r="A57" s="26">
         <v>43980</v>
       </c>
@@ -13526,7 +13529,7 @@
         <v>151.169998168945</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:10">
       <c r="A58" s="26">
         <v>43951</v>
       </c>
@@ -13558,7 +13561,7 @@
         <v>150.85000610351599</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:10">
       <c r="A59" s="26">
         <v>43921</v>
       </c>
@@ -13590,7 +13593,7 @@
         <v>142.19000244140599</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:10">
       <c r="A60" s="26">
         <v>43889</v>
       </c>
@@ -13622,7 +13625,7 @@
         <v>140.13000488281199</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:10">
       <c r="A61" s="26">
         <v>43861</v>
       </c>
@@ -13654,7 +13657,7 @@
         <v>138.92999267578099</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:10">
       <c r="A62" s="26">
         <v>43829</v>
       </c>
@@ -13686,7 +13689,7 @@
         <v>131.11999511718801</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:10">
       <c r="A63" s="26">
         <v>43798</v>
       </c>
@@ -13718,7 +13721,7 @@
         <v>128.97000122070301</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:10">
       <c r="A64" s="26">
         <v>43769</v>
       </c>
@@ -13750,7 +13753,7 @@
         <v>131.61000061035199</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:10">
       <c r="A65" s="26">
         <v>43738</v>
       </c>
@@ -13782,7 +13785,7 @@
         <v>130.72999572753901</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:10">
       <c r="A66" s="26">
         <v>43707</v>
       </c>
@@ -13814,7 +13817,7 @@
         <v>135.07000732421901</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:10">
       <c r="A67" s="26">
         <v>43677</v>
       </c>
@@ -13846,7 +13849,7 @@
         <v>124.610000610352</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:10">
       <c r="A68" s="26">
         <v>43644</v>
       </c>
@@ -13878,7 +13881,7 @@
         <v>120.5</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:10">
       <c r="A69" s="26">
         <v>43616</v>
       </c>
@@ -13910,7 +13913,7 @@
         <v>113.379997253418</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:10">
       <c r="A70" s="26">
         <v>43585</v>
       </c>
@@ -13942,7 +13945,7 @@
         <v>111.379997253418</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:10">
       <c r="A71" s="26">
         <v>43553</v>
       </c>
@@ -13986,7 +13989,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -14001,57 +14004,57 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="16.68359375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.05078125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.15625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.3671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.3671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.3125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9">
       <c r="A1" s="31"/>
       <c r="B1" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="31" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>0.74550515065673795</v>
@@ -14060,9 +14063,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>0.83326907431395325</v>
@@ -14074,9 +14077,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B5">
         <v>0.7709917338030583</v>
@@ -14091,9 +14094,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <v>0.36495874989003879</v>
@@ -14111,9 +14114,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B7">
         <v>0.54849847423495013</v>
@@ -14134,9 +14137,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B8">
         <v>4.0079126499875994E-2</v>
@@ -14160,9 +14163,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:9" ht="14.65" thickBot="1">
       <c r="A9" s="30" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B9" s="30">
         <v>0.16626710264415823</v>
@@ -14214,7 +14217,7 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
